--- a/EJ5/Mediciones/Mediciones.xlsx
+++ b/EJ5/Mediciones/Mediciones.xlsx
@@ -2142,7 +2142,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2365,7 +2365,7 @@
   <dimension ref="B1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
